--- a/S7G2_Titan/2023_Aug_04_MD_Controller_IO_Map_32_bit_S7G2_Titan_Motion_Control.xlsx
+++ b/S7G2_Titan/2023_Aug_04_MD_Controller_IO_Map_32_bit_S7G2_Titan_Motion_Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB57F7-22A0-4227-AF39-F9670D1FAEAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0434FB-7130-4849-8726-248769686851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="1103" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller Headers" sheetId="13" r:id="rId1"/>
@@ -24,11 +24,24 @@
     <sheet name="Rack and Pinion" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7805" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="1075">
   <si>
     <t>A</t>
   </si>
@@ -3263,6 +3276,9 @@
   </si>
   <si>
     <t>M12_STEP</t>
+  </si>
+  <si>
+    <t>J9</t>
   </si>
 </sst>
 </file>
@@ -3554,6 +3570,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3570,12 +3592,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4036,17 +4052,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:AD236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.3984375" style="20" customWidth="1"/>
     <col min="2" max="2" width="13.46484375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="7.1328125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" style="51" customWidth="1"/>
     <col min="4" max="4" width="5.796875" style="20" customWidth="1"/>
     <col min="5" max="5" width="15.53125" style="20" customWidth="1"/>
     <col min="6" max="7" width="6.6640625" style="20" customWidth="1"/>
@@ -4071,7 +4090,7 @@
       <c r="B3" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="50" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="21"/>
@@ -4127,7 +4146,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4215,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>940</v>
       </c>
       <c r="D5" s="21">
@@ -4255,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="50" t="s">
         <v>940</v>
       </c>
       <c r="D6" s="21">
@@ -4295,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="50" t="s">
         <v>940</v>
       </c>
       <c r="D7" s="21">
@@ -4335,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="50" t="s">
         <v>940</v>
       </c>
       <c r="D8" s="21">
@@ -4377,7 +4396,7 @@
       <c r="B9" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D9" s="21">
@@ -4465,7 +4484,7 @@
       <c r="B10" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D10" s="21">
@@ -4553,7 +4572,7 @@
       <c r="B11" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D11" s="21">
@@ -4641,7 +4660,7 @@
       <c r="B12" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D12" s="21"/>
@@ -4725,7 +4744,7 @@
       <c r="B13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D13" s="21"/>
@@ -4809,7 +4828,7 @@
       <c r="B14" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D14" s="21"/>
@@ -4893,7 +4912,7 @@
       <c r="B15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D15" s="21"/>
@@ -4977,7 +4996,7 @@
       <c r="B16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D16" s="21"/>
@@ -5061,7 +5080,7 @@
       <c r="B17" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D17" s="21"/>
@@ -5145,7 +5164,7 @@
       <c r="B18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D18" s="21"/>
@@ -5229,7 +5248,7 @@
       <c r="B19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D19" s="21"/>
@@ -5313,7 +5332,7 @@
       <c r="B20" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D20" s="21"/>
@@ -5397,7 +5416,7 @@
       <c r="B21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D21" s="21"/>
@@ -5481,7 +5500,7 @@
       <c r="B22" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D22" s="21">
@@ -5569,7 +5588,7 @@
       <c r="B23" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D23" s="21">
@@ -5657,7 +5676,7 @@
       <c r="B24" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D24" s="21">
@@ -5745,7 +5764,7 @@
       <c r="B25" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="50" t="s">
         <v>938</v>
       </c>
       <c r="D25" s="21">
@@ -5835,7 +5854,7 @@
       <c r="B26" s="21" t="s">
         <v>972</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -5871,7 +5890,7 @@
       <c r="B27" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -5907,7 +5926,7 @@
       <c r="B28" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
         <v>977</v>
@@ -5945,7 +5964,7 @@
       <c r="B29" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
         <v>977</v>
@@ -5983,7 +6002,7 @@
       <c r="B30" s="21" t="s">
         <v>974</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
         <v>204</v>
@@ -6021,7 +6040,7 @@
       <c r="B31" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
         <v>975</v>
@@ -6059,7 +6078,7 @@
       <c r="B32" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
         <v>976</v>
@@ -6097,7 +6116,7 @@
       <c r="B33" s="21" t="s">
         <v>978</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
         <v>919</v>
@@ -6135,7 +6154,7 @@
       <c r="B34" s="21" t="s">
         <v>979</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
         <v>919</v>
@@ -6173,7 +6192,7 @@
       <c r="B35" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
         <v>983</v>
@@ -6211,7 +6230,7 @@
       <c r="B36" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
         <v>204</v>
@@ -6249,7 +6268,7 @@
       <c r="B37" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
         <v>204</v>
@@ -6287,7 +6306,7 @@
       <c r="B38" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
         <v>204</v>
@@ -6325,7 +6344,7 @@
       <c r="B39" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="50" t="s">
         <v>938</v>
       </c>
       <c r="D39" s="21">
@@ -6415,7 +6434,7 @@
       <c r="B40" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="50" t="s">
         <v>938</v>
       </c>
       <c r="D40" s="21">
@@ -6505,7 +6524,7 @@
       <c r="B41" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="21"/>
       <c r="E41" s="44" t="s">
         <v>204</v>
@@ -6543,7 +6562,7 @@
       <c r="B42" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="21"/>
       <c r="E42" s="44" t="s">
         <v>919</v>
@@ -6581,7 +6600,7 @@
       <c r="B43" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="21"/>
       <c r="E43" s="44" t="s">
         <v>204</v>
@@ -6619,7 +6638,7 @@
       <c r="B44" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D44" s="21">
@@ -6707,7 +6726,7 @@
       <c r="B45" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D45" s="21">
@@ -6795,7 +6814,7 @@
       <c r="B46" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D46" s="21">
@@ -6883,7 +6902,7 @@
       <c r="B47" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D47" s="21">
@@ -6971,7 +6990,7 @@
       <c r="B48" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D48" s="21">
@@ -7059,7 +7078,7 @@
       <c r="B49" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D49" s="21">
@@ -7147,7 +7166,7 @@
       <c r="B50" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D50" s="21">
@@ -7235,7 +7254,7 @@
       <c r="B51" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D51" s="21">
@@ -7323,7 +7342,7 @@
       <c r="B52" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="50" t="s">
         <v>936</v>
       </c>
       <c r="D52" s="21">
@@ -7413,7 +7432,7 @@
       <c r="B53" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="C53" s="56"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
         <v>204</v>
@@ -7451,7 +7470,7 @@
       <c r="B54" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="50" t="s">
         <v>936</v>
       </c>
       <c r="D54" s="21">
@@ -7539,7 +7558,7 @@
       <c r="B55" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="50" t="s">
         <v>936</v>
       </c>
       <c r="D55" s="21">
@@ -7625,7 +7644,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="21"/>
-      <c r="C56" s="56"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="21"/>
       <c r="E56" s="44"/>
       <c r="F56" s="21"/>
@@ -7661,8 +7680,12 @@
       <c r="B57" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="50" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D57" s="21">
+        <v>9</v>
+      </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21">
         <v>1</v>
@@ -7711,8 +7734,12 @@
       <c r="B58" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="21"/>
+      <c r="C58" s="50" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D58" s="21">
+        <v>7</v>
+      </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21">
         <v>1</v>
@@ -7797,8 +7824,12 @@
       <c r="B59" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="21"/>
+      <c r="C59" s="50" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D59" s="21">
+        <v>5</v>
+      </c>
       <c r="E59" s="21"/>
       <c r="F59" s="21">
         <v>1</v>
@@ -7883,8 +7914,12 @@
       <c r="B60" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="21"/>
+      <c r="C60" s="50" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D60" s="21">
+        <v>3</v>
+      </c>
       <c r="E60" s="21"/>
       <c r="F60" s="21">
         <v>1</v>
@@ -7969,8 +8004,12 @@
       <c r="B61" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="21"/>
+      <c r="C61" s="50" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D61" s="21">
+        <v>1</v>
+      </c>
       <c r="E61" s="21"/>
       <c r="F61" s="21">
         <v>1</v>
@@ -8055,7 +8094,7 @@
       <c r="B62" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="56"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21">
@@ -8139,7 +8178,7 @@
       <c r="B63" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="C63" s="56"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21">
@@ -8225,7 +8264,7 @@
       <c r="B64" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C64" s="56"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21">
@@ -8311,7 +8350,7 @@
       <c r="B65" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C65" s="56"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21">
@@ -8397,7 +8436,7 @@
       <c r="B66" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C66" s="56"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21">
@@ -8483,7 +8522,7 @@
       <c r="B67" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="C67" s="56"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21">
@@ -8569,7 +8608,7 @@
       <c r="B68" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C68" s="56"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="21"/>
       <c r="E68" s="21" t="s">
         <v>919</v>
@@ -8607,7 +8646,7 @@
       <c r="B69" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C69" s="56"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21" t="s">
         <v>204</v>
@@ -8645,7 +8684,7 @@
       <c r="B70" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C70" s="56"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="21"/>
       <c r="E70" s="21" t="s">
         <v>204</v>
@@ -8683,7 +8722,7 @@
       <c r="B71" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C71" s="56"/>
+      <c r="C71" s="50"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21" t="s">
         <v>204</v>
@@ -8721,7 +8760,7 @@
       <c r="B72" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="21"/>
       <c r="E72" s="21" t="s">
         <v>204</v>
@@ -8759,7 +8798,7 @@
       <c r="B73" s="21" t="s">
         <v>987</v>
       </c>
-      <c r="C73" s="56"/>
+      <c r="C73" s="50"/>
       <c r="D73" s="21"/>
       <c r="E73" s="21" t="s">
         <v>204</v>
@@ -8797,7 +8836,7 @@
       <c r="B74" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C74" s="56"/>
+      <c r="C74" s="50"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21" t="s">
         <v>204</v>
@@ -8835,7 +8874,7 @@
       <c r="B75" s="21" t="s">
         <v>966</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="50" t="s">
         <v>939</v>
       </c>
       <c r="D75" s="21">
@@ -8923,7 +8962,7 @@
       <c r="B76" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="56"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="21"/>
       <c r="E76" s="44"/>
       <c r="F76" s="44">
@@ -9009,7 +9048,7 @@
       <c r="B77" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="C77" s="56"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="21"/>
       <c r="E77" s="44" t="s">
         <v>993</v>
@@ -9097,7 +9136,7 @@
       <c r="B78" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="C78" s="56"/>
+      <c r="C78" s="50"/>
       <c r="D78" s="21"/>
       <c r="E78" s="44"/>
       <c r="F78" s="21">
@@ -9183,7 +9222,7 @@
       <c r="B79" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="C79" s="56"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="21"/>
       <c r="E79" s="44"/>
       <c r="F79" s="44">
@@ -9269,7 +9308,7 @@
       <c r="B80" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C80" s="56"/>
+      <c r="C80" s="50"/>
       <c r="D80" s="21"/>
       <c r="E80" s="44"/>
       <c r="F80" s="44">
@@ -9355,7 +9394,7 @@
       <c r="B81" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="C81" s="56"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
       <c r="F81" s="21">
@@ -9441,7 +9480,7 @@
       <c r="B82" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="C82" s="56"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="21">
@@ -9527,7 +9566,7 @@
       <c r="B83" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="C83" s="56"/>
+      <c r="C83" s="50"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21">
@@ -9613,7 +9652,7 @@
       <c r="B84" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="C84" s="56"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="21">
@@ -9699,7 +9738,7 @@
       <c r="B85" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="C85" s="56"/>
+      <c r="C85" s="50"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
       <c r="F85" s="21">
@@ -9785,7 +9824,7 @@
       <c r="B86" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="C86" s="56"/>
+      <c r="C86" s="50"/>
       <c r="D86" s="21"/>
       <c r="E86" s="21" t="s">
         <v>988</v>
@@ -9823,7 +9862,7 @@
       <c r="B87" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="50" t="s">
         <v>206</v>
       </c>
       <c r="D87" s="21"/>
@@ -9909,7 +9948,7 @@
       <c r="B88" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="50" t="s">
         <v>206</v>
       </c>
       <c r="D88" s="21"/>
@@ -9995,7 +10034,7 @@
       <c r="B89" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="50" t="s">
         <v>206</v>
       </c>
       <c r="D89" s="21"/>
@@ -10083,7 +10122,7 @@
       <c r="B90" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="50" t="s">
         <v>206</v>
       </c>
       <c r="D90" s="21"/>
@@ -10171,7 +10210,7 @@
       <c r="B91" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C91" s="56"/>
+      <c r="C91" s="50"/>
       <c r="D91" s="21"/>
       <c r="E91" s="21" t="s">
         <v>204</v>
@@ -10209,7 +10248,7 @@
       <c r="B92" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C92" s="56"/>
+      <c r="C92" s="50"/>
       <c r="D92" s="21"/>
       <c r="E92" s="21" t="s">
         <v>919</v>
@@ -10247,7 +10286,7 @@
       <c r="B93" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C93" s="56" t="s">
+      <c r="C93" s="50" t="s">
         <v>206</v>
       </c>
       <c r="D93" s="21"/>
@@ -10333,7 +10372,7 @@
       <c r="B94" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C94" s="56" t="s">
+      <c r="C94" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D94" s="21">
@@ -10425,7 +10464,7 @@
       <c r="B95" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D95" s="21">
@@ -10517,7 +10556,7 @@
       <c r="B96" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="56" t="s">
+      <c r="C96" s="50" t="s">
         <v>939</v>
       </c>
       <c r="D96" s="47">
@@ -10603,7 +10642,7 @@
       <c r="B97" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="50" t="s">
         <v>939</v>
       </c>
       <c r="D97" s="47">
@@ -10689,7 +10728,7 @@
       <c r="B98" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C98" s="56" t="s">
+      <c r="C98" s="50" t="s">
         <v>939</v>
       </c>
       <c r="D98" s="47">
@@ -10775,7 +10814,7 @@
       <c r="B99" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C99" s="56" t="s">
+      <c r="C99" s="50" t="s">
         <v>939</v>
       </c>
       <c r="D99" s="47">
@@ -10861,7 +10900,7 @@
       <c r="B100" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C100" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D100" s="21">
@@ -10951,7 +10990,7 @@
       <c r="B101" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C101" s="56" t="s">
+      <c r="C101" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D101" s="21">
@@ -11039,7 +11078,7 @@
       <c r="B102" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="C102" s="56" t="s">
+      <c r="C102" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D102" s="21">
@@ -11127,7 +11166,7 @@
       <c r="B103" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D103" s="21">
@@ -11215,7 +11254,7 @@
       <c r="B104" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="C104" s="56" t="s">
+      <c r="C104" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D104" s="21">
@@ -11303,7 +11342,7 @@
       <c r="B105" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C105" s="56"/>
+      <c r="C105" s="50"/>
       <c r="D105" s="21"/>
       <c r="E105" s="21" t="s">
         <v>919</v>
@@ -11341,7 +11380,7 @@
       <c r="B106" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C106" s="56"/>
+      <c r="C106" s="50"/>
       <c r="D106" s="21"/>
       <c r="E106" s="21" t="s">
         <v>204</v>
@@ -11379,7 +11418,7 @@
       <c r="B107" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D107" s="21">
@@ -11469,7 +11508,7 @@
       <c r="B108" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C108" s="56" t="s">
+      <c r="C108" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D108" s="21">
@@ -11559,7 +11598,7 @@
       <c r="B109" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D109" s="21">
@@ -11649,7 +11688,7 @@
       <c r="B110" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="C110" s="56" t="s">
+      <c r="C110" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D110" s="21">
@@ -11737,7 +11776,7 @@
       <c r="B111" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D111" s="21">
@@ -11827,7 +11866,7 @@
       <c r="B112" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="C112" s="56" t="s">
+      <c r="C112" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D112" s="21">
@@ -11917,7 +11956,7 @@
       <c r="B113" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="C113" s="56" t="s">
+      <c r="C113" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D113" s="21">
@@ -12007,7 +12046,7 @@
       <c r="B114" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="C114" s="56" t="s">
+      <c r="C114" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D114" s="21">
@@ -12097,7 +12136,7 @@
       <c r="B115" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="C115" s="56" t="s">
+      <c r="C115" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D115" s="21">
@@ -12187,7 +12226,7 @@
       <c r="B116" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C116" s="56" t="s">
+      <c r="C116" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D116" s="21">
@@ -12277,7 +12316,7 @@
       <c r="B117" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="C117" s="56" t="s">
+      <c r="C117" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D117" s="21">
@@ -12367,7 +12406,7 @@
       <c r="B118" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C118" s="56"/>
+      <c r="C118" s="50"/>
       <c r="D118" s="21"/>
       <c r="E118" s="21" t="s">
         <v>919</v>
@@ -12405,7 +12444,7 @@
       <c r="B119" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C119" s="56"/>
+      <c r="C119" s="50"/>
       <c r="D119" s="21"/>
       <c r="E119" s="21" t="s">
         <v>204</v>
@@ -12443,7 +12482,7 @@
       <c r="B120" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="C120" s="56"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="21"/>
       <c r="E120" s="21" t="s">
         <v>204</v>
@@ -12481,7 +12520,7 @@
       <c r="B121" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="C121" s="56" t="s">
+      <c r="C121" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D121" s="21">
@@ -12569,7 +12608,7 @@
       <c r="B122" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="C122" s="56" t="s">
+      <c r="C122" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D122" s="21">
@@ -12657,7 +12696,7 @@
       <c r="B123" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C123" s="56" t="s">
+      <c r="C123" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D123" s="21">
@@ -12745,7 +12784,7 @@
       <c r="B124" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C124" s="56" t="s">
+      <c r="C124" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D124" s="21">
@@ -12833,7 +12872,7 @@
       <c r="B125" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="C125" s="56" t="s">
+      <c r="C125" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D125" s="21">
@@ -12921,7 +12960,7 @@
       <c r="B126" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C126" s="56" t="s">
+      <c r="C126" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D126" s="21">
@@ -13009,7 +13048,7 @@
       <c r="B127" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="56" t="s">
+      <c r="C127" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D127" s="21">
@@ -13097,7 +13136,7 @@
       <c r="B128" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D128" s="21">
@@ -13185,7 +13224,7 @@
       <c r="B129" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="56" t="s">
+      <c r="C129" s="50" t="s">
         <v>951</v>
       </c>
       <c r="D129" s="21">
@@ -13275,7 +13314,7 @@
       <c r="B130" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="56"/>
+      <c r="C130" s="50"/>
       <c r="D130" s="21">
         <v>19</v>
       </c>
@@ -13363,7 +13402,7 @@
       <c r="B131" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C131" s="56"/>
+      <c r="C131" s="50"/>
       <c r="D131" s="21"/>
       <c r="E131" s="21" t="s">
         <v>919</v>
@@ -13401,7 +13440,7 @@
       <c r="B132" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C132" s="56"/>
+      <c r="C132" s="50"/>
       <c r="D132" s="21"/>
       <c r="E132" s="21" t="s">
         <v>204</v>
@@ -13439,7 +13478,7 @@
       <c r="B133" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="56"/>
+      <c r="C133" s="50"/>
       <c r="D133" s="21">
         <v>17</v>
       </c>
@@ -13530,7 +13569,7 @@
       <c r="B134" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C134" s="56"/>
+      <c r="C134" s="50"/>
       <c r="D134" s="21">
         <v>15</v>
       </c>
@@ -13616,7 +13655,7 @@
       <c r="B135" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="56"/>
+      <c r="C135" s="50"/>
       <c r="D135" s="21">
         <v>13</v>
       </c>
@@ -13702,7 +13741,7 @@
       <c r="B136" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="56"/>
+      <c r="C136" s="50"/>
       <c r="D136" s="21">
         <v>11</v>
       </c>
@@ -13788,7 +13827,7 @@
       <c r="B137" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="56"/>
+      <c r="C137" s="50"/>
       <c r="D137" s="21">
         <v>9</v>
       </c>
@@ -13874,7 +13913,7 @@
       <c r="B138" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C138" s="56"/>
+      <c r="C138" s="50"/>
       <c r="D138" s="21">
         <v>7</v>
       </c>
@@ -13960,7 +13999,7 @@
       <c r="B139" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C139" s="56"/>
+      <c r="C139" s="50"/>
       <c r="D139" s="21">
         <v>5</v>
       </c>
@@ -14048,7 +14087,7 @@
       <c r="B140" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C140" s="56"/>
+      <c r="C140" s="50"/>
       <c r="D140" s="21">
         <v>3</v>
       </c>
@@ -14136,7 +14175,7 @@
       <c r="B141" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="C141" s="56"/>
+      <c r="C141" s="50"/>
       <c r="D141" s="21">
         <v>1</v>
       </c>
@@ -14222,9 +14261,9 @@
       <c r="B142" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="C142" s="56"/>
+      <c r="C142" s="50"/>
       <c r="D142" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E142" s="21"/>
       <c r="F142" s="21">
@@ -14308,9 +14347,9 @@
       <c r="B143" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="C143" s="56"/>
+      <c r="C143" s="50"/>
       <c r="D143" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" s="21"/>
       <c r="F143" s="21">
@@ -14394,10 +14433,12 @@
       <c r="B144" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="C144" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D144" s="21"/>
+      <c r="C144" s="50" t="s">
+        <v>951</v>
+      </c>
+      <c r="D144" s="21">
+        <v>2</v>
+      </c>
       <c r="E144" s="21"/>
       <c r="F144" s="21">
         <v>1</v>
@@ -14480,10 +14521,12 @@
       <c r="B145" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="C145" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D145" s="21"/>
+      <c r="C145" s="50" t="s">
+        <v>951</v>
+      </c>
+      <c r="D145" s="21">
+        <v>1</v>
+      </c>
       <c r="E145" s="21"/>
       <c r="F145" s="21">
         <v>1</v>
@@ -14564,7 +14607,7 @@
       <c r="B146" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C146" s="56"/>
+      <c r="C146" s="50"/>
       <c r="D146" s="21"/>
       <c r="E146" s="21" t="s">
         <v>919</v>
@@ -14602,7 +14645,7 @@
       <c r="B147" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C147" s="56"/>
+      <c r="C147" s="50"/>
       <c r="D147" s="21"/>
       <c r="E147" s="21" t="s">
         <v>204</v>
@@ -14640,7 +14683,7 @@
       <c r="B148" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C148" s="56" t="s">
+      <c r="C148" s="50" t="s">
         <v>929</v>
       </c>
       <c r="D148" s="21">
@@ -14726,7 +14769,7 @@
       <c r="B149" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C149" s="56" t="s">
+      <c r="C149" s="50" t="s">
         <v>929</v>
       </c>
       <c r="D149" s="21">
@@ -14812,7 +14855,7 @@
       <c r="B150" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C150" s="56" t="s">
+      <c r="C150" s="50" t="s">
         <v>929</v>
       </c>
       <c r="D150" s="21">
@@ -14898,7 +14941,7 @@
       <c r="B151" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C151" s="56" t="s">
+      <c r="C151" s="50" t="s">
         <v>929</v>
       </c>
       <c r="D151" s="21">
@@ -14982,7 +15025,7 @@
       <c r="B152" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C152" s="56" t="s">
+      <c r="C152" s="50" t="s">
         <v>929</v>
       </c>
       <c r="D152" s="21">
@@ -15064,7 +15107,7 @@
       <c r="B153" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C153" s="56" t="s">
+      <c r="C153" s="50" t="s">
         <v>929</v>
       </c>
       <c r="D153" s="21">
@@ -15150,7 +15193,7 @@
       <c r="B154" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="C154" s="56" t="s">
+      <c r="C154" s="50" t="s">
         <v>929</v>
       </c>
       <c r="D154" s="21">
@@ -15236,7 +15279,7 @@
       <c r="B155" s="21" t="s">
         <v>834</v>
       </c>
-      <c r="C155" s="56" t="s">
+      <c r="C155" s="50" t="s">
         <v>929</v>
       </c>
       <c r="D155" s="21">
@@ -15320,7 +15363,7 @@
       <c r="B156" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="C156" s="56"/>
+      <c r="C156" s="50"/>
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
@@ -15356,7 +15399,7 @@
       <c r="B157" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C157" s="56"/>
+      <c r="C157" s="50"/>
       <c r="D157" s="21"/>
       <c r="E157" s="21" t="s">
         <v>919</v>
@@ -15394,7 +15437,7 @@
       <c r="B158" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C158" s="56"/>
+      <c r="C158" s="50"/>
       <c r="D158" s="21"/>
       <c r="E158" s="21" t="s">
         <v>204</v>
@@ -15432,7 +15475,7 @@
       <c r="B159" s="21" t="s">
         <v>840</v>
       </c>
-      <c r="C159" s="56" t="s">
+      <c r="C159" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D159" s="21">
@@ -15524,7 +15567,7 @@
       <c r="B160" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="C160" s="56" t="s">
+      <c r="C160" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D160" s="21">
@@ -15616,7 +15659,7 @@
       <c r="B161" s="21" t="s">
         <v>846</v>
       </c>
-      <c r="C161" s="56"/>
+      <c r="C161" s="50"/>
       <c r="D161" s="21"/>
       <c r="E161" s="21" t="s">
         <v>204</v>
@@ -15654,7 +15697,7 @@
       <c r="B162" s="21" t="s">
         <v>847</v>
       </c>
-      <c r="C162" s="56"/>
+      <c r="C162" s="50"/>
       <c r="D162" s="21"/>
       <c r="E162" s="21" t="s">
         <v>919</v>
@@ -15692,7 +15735,7 @@
       <c r="B163" s="21" t="s">
         <v>848</v>
       </c>
-      <c r="C163" s="56"/>
+      <c r="C163" s="50"/>
       <c r="D163" s="21"/>
       <c r="E163" s="21" t="s">
         <v>919</v>
@@ -15730,7 +15773,7 @@
       <c r="B164" s="21" t="s">
         <v>849</v>
       </c>
-      <c r="C164" s="56"/>
+      <c r="C164" s="50"/>
       <c r="D164" s="21"/>
       <c r="E164" s="21" t="s">
         <v>204</v>
@@ -15768,7 +15811,7 @@
       <c r="B165" s="21" t="s">
         <v>850</v>
       </c>
-      <c r="C165" s="56"/>
+      <c r="C165" s="50"/>
       <c r="D165" s="21"/>
       <c r="E165" s="21" t="s">
         <v>204</v>
@@ -15806,7 +15849,7 @@
       <c r="B166" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="C166" s="56"/>
+      <c r="C166" s="50"/>
       <c r="D166" s="21"/>
       <c r="E166" s="21" t="s">
         <v>919</v>
@@ -15844,7 +15887,7 @@
       <c r="B167" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="C167" s="56" t="s">
+      <c r="C167" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D167" s="21"/>
@@ -15928,7 +15971,7 @@
       <c r="B168" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="C168" s="56" t="s">
+      <c r="C168" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D168" s="21">
@@ -16020,7 +16063,7 @@
       <c r="B169" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="C169" s="56" t="s">
+      <c r="C169" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D169" s="21">
@@ -16112,7 +16155,7 @@
       <c r="B170" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="C170" s="56" t="s">
+      <c r="C170" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D170" s="21">
@@ -16202,7 +16245,7 @@
       <c r="B171" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="C171" s="56" t="s">
+      <c r="C171" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D171" s="21">
@@ -16294,7 +16337,7 @@
       <c r="B172" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C172" s="56" t="s">
+      <c r="C172" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D172" s="21">
@@ -16386,7 +16429,7 @@
       <c r="B173" s="21" t="s">
         <v>870</v>
       </c>
-      <c r="C173" s="56" t="s">
+      <c r="C173" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D173" s="21">
@@ -16478,7 +16521,7 @@
       <c r="B174" s="21" t="s">
         <v>872</v>
       </c>
-      <c r="C174" s="56" t="s">
+      <c r="C174" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D174" s="21">
@@ -16568,7 +16611,7 @@
       <c r="B175" s="21" t="s">
         <v>875</v>
       </c>
-      <c r="C175" s="56" t="s">
+      <c r="C175" s="50" t="s">
         <v>1019</v>
       </c>
       <c r="D175" s="21">
@@ -16660,7 +16703,7 @@
       <c r="B176" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="C176" s="56" t="s">
+      <c r="C176" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D176" s="21">
@@ -16752,7 +16795,7 @@
       <c r="B177" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C177" s="56" t="s">
+      <c r="C177" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D177" s="21">
@@ -16844,7 +16887,7 @@
       <c r="B178" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C178" s="56"/>
+      <c r="C178" s="50"/>
       <c r="D178" s="21"/>
       <c r="E178" s="21" t="s">
         <v>204</v>
@@ -16882,7 +16925,7 @@
       <c r="B179" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C179" s="56"/>
+      <c r="C179" s="50"/>
       <c r="D179" s="21"/>
       <c r="E179" s="21" t="s">
         <v>919</v>
@@ -16920,7 +16963,7 @@
       <c r="B180" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="C180" s="56" t="s">
+      <c r="C180" s="50" t="s">
         <v>964</v>
       </c>
       <c r="D180" s="21"/>
@@ -17004,7 +17047,7 @@
       <c r="B181" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="C181" s="56" t="s">
+      <c r="C181" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D181" s="21">
@@ -17092,7 +17135,7 @@
       <c r="B182" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="C182" s="56" t="s">
+      <c r="C182" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D182" s="21">
@@ -17180,7 +17223,7 @@
       <c r="B183" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C183" s="56" t="s">
+      <c r="C183" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D183" s="21">
@@ -17268,7 +17311,7 @@
       <c r="B184" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C184" s="56" t="s">
+      <c r="C184" s="50" t="s">
         <v>937</v>
       </c>
       <c r="D184" s="21">
@@ -17560,12 +17603,12 @@
       <c r="G236" s="42"/>
     </row>
   </sheetData>
-  <sortState ref="A5:AD184">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AD184">
     <sortCondition ref="A5:A184"/>
     <sortCondition ref="D5:D184"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="44" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17589,11 +17632,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" t="s">
         <v>250</v>
       </c>
@@ -17603,28 +17646,28 @@
       <c r="G3" t="s">
         <v>252</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
       <c r="X3" t="s">
         <v>256</v>
       </c>
@@ -17713,7 +17756,7 @@
       <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="53" t="s">
         <v>204</v>
       </c>
     </row>
@@ -17721,13 +17764,13 @@
       <c r="C6" s="20">
         <v>2</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="20">
         <v>3</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="53" t="s">
         <v>930</v>
       </c>
     </row>
@@ -17735,13 +17778,13 @@
       <c r="C8" s="20">
         <v>4</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="53"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C9" s="20">
         <v>5</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="53" t="s">
         <v>931</v>
       </c>
     </row>
@@ -17749,13 +17792,13 @@
       <c r="C10" s="20">
         <v>6</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C11" s="20">
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="53" t="s">
         <v>932</v>
       </c>
     </row>
@@ -17763,13 +17806,13 @@
       <c r="C12" s="20">
         <v>8</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C13" s="20">
         <v>9</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="54" t="s">
         <v>933</v>
       </c>
     </row>
@@ -17777,7 +17820,7 @@
       <c r="C14" s="20">
         <v>10</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
@@ -18043,7 +18086,7 @@
       <c r="A19" s="20">
         <v>4</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="52" t="s">
         <v>903</v>
       </c>
       <c r="E19" t="s">
@@ -18120,7 +18163,7 @@
       <c r="A20" s="20">
         <v>5</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="52"/>
       <c r="E20" t="s">
         <v>284</v>
       </c>
@@ -18195,7 +18238,7 @@
       <c r="A21" s="20">
         <v>6</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="52"/>
       <c r="E21" t="s">
         <v>284</v>
       </c>
@@ -18270,7 +18313,7 @@
       <c r="A22" s="20">
         <v>7</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="52"/>
       <c r="E22" t="s">
         <v>284</v>
       </c>
@@ -18345,7 +18388,7 @@
       <c r="A23" s="20">
         <v>8</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="52"/>
       <c r="E23" t="s">
         <v>284</v>
       </c>
@@ -18420,7 +18463,7 @@
       <c r="A24" s="20">
         <v>9</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="52"/>
       <c r="E24" t="s">
         <v>284</v>
       </c>
@@ -18495,7 +18538,7 @@
       <c r="A25" s="20">
         <v>10</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="52"/>
       <c r="E25" t="s">
         <v>284</v>
       </c>
@@ -18570,7 +18613,7 @@
       <c r="A26" s="20">
         <v>11</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="52"/>
       <c r="E26" t="s">
         <v>284</v>
       </c>
@@ -18645,7 +18688,7 @@
       <c r="A27" s="20">
         <v>12</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="52"/>
       <c r="E27" t="s">
         <v>284</v>
       </c>
@@ -18720,7 +18763,7 @@
       <c r="A28" s="20">
         <v>13</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="52"/>
       <c r="E28" t="s">
         <v>284</v>
       </c>
@@ -19177,7 +19220,7 @@
       <c r="A34" s="20">
         <v>19</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="52" t="s">
         <v>905</v>
       </c>
       <c r="E34" t="s">
@@ -19254,7 +19297,7 @@
       <c r="A35" s="20">
         <v>20</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="52"/>
       <c r="E35" t="s">
         <v>365</v>
       </c>
@@ -19329,7 +19372,7 @@
       <c r="A36" s="20">
         <v>21</v>
       </c>
-      <c r="D36" s="50"/>
+      <c r="D36" s="52"/>
       <c r="E36" t="s">
         <v>366</v>
       </c>
@@ -19404,7 +19447,7 @@
       <c r="A37" s="20">
         <v>22</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="52"/>
       <c r="E37" t="s">
         <v>367</v>
       </c>
@@ -19479,7 +19522,7 @@
       <c r="A38" s="20">
         <v>23</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="52"/>
       <c r="E38" t="s">
         <v>368</v>
       </c>
@@ -19554,7 +19597,7 @@
       <c r="A39" s="20">
         <v>24</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="52"/>
       <c r="E39" t="s">
         <v>373</v>
       </c>
@@ -19629,7 +19672,7 @@
       <c r="A40" s="20">
         <v>25</v>
       </c>
-      <c r="D40" s="50"/>
+      <c r="D40" s="52"/>
       <c r="E40" t="s">
         <v>379</v>
       </c>
@@ -19704,7 +19747,7 @@
       <c r="A41" s="20">
         <v>26</v>
       </c>
-      <c r="D41" s="50"/>
+      <c r="D41" s="52"/>
       <c r="E41" t="s">
         <v>380</v>
       </c>
@@ -19779,7 +19822,7 @@
       <c r="A42" s="20">
         <v>27</v>
       </c>
-      <c r="D42" s="50"/>
+      <c r="D42" s="52"/>
       <c r="E42" t="s">
         <v>381</v>
       </c>
@@ -19854,7 +19897,7 @@
       <c r="A43" s="20">
         <v>28</v>
       </c>
-      <c r="D43" s="50"/>
+      <c r="D43" s="52"/>
       <c r="E43" t="s">
         <v>382</v>
       </c>
@@ -19929,7 +19972,7 @@
       <c r="A44" s="20">
         <v>29</v>
       </c>
-      <c r="D44" s="50"/>
+      <c r="D44" s="52"/>
       <c r="E44" t="s">
         <v>383</v>
       </c>
@@ -20004,7 +20047,7 @@
       <c r="A45" s="20">
         <v>30</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="52"/>
       <c r="E45" t="s">
         <v>384</v>
       </c>
@@ -20079,7 +20122,7 @@
       <c r="A46" s="20">
         <v>31</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="52" t="s">
         <v>906</v>
       </c>
       <c r="E46" t="s">
@@ -20156,7 +20199,7 @@
       <c r="A47" s="20">
         <v>32</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="52"/>
       <c r="E47" t="s">
         <v>284</v>
       </c>
@@ -20231,7 +20274,7 @@
       <c r="A48" s="20">
         <v>33</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="52" t="s">
         <v>909</v>
       </c>
       <c r="E48" t="s">
@@ -20308,7 +20351,7 @@
       <c r="A49" s="20">
         <v>34</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="52"/>
       <c r="E49" t="s">
         <v>386</v>
       </c>
@@ -20383,7 +20426,7 @@
       <c r="A50" s="20">
         <v>35</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="52"/>
       <c r="E50" t="s">
         <v>367</v>
       </c>
@@ -21255,7 +21298,7 @@
       <c r="C61" s="20">
         <v>2</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="52" t="s">
         <v>918</v>
       </c>
       <c r="F61" t="s">
@@ -21332,7 +21375,7 @@
       <c r="C62" s="20">
         <v>3</v>
       </c>
-      <c r="D62" s="50"/>
+      <c r="D62" s="52"/>
       <c r="F62" t="s">
         <v>284</v>
       </c>
@@ -22355,7 +22398,7 @@
       <c r="A75" s="20">
         <v>60</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="52" t="s">
         <v>909</v>
       </c>
       <c r="E75" t="s">
@@ -22432,7 +22475,7 @@
       <c r="A76" s="20">
         <v>61</v>
       </c>
-      <c r="D76" s="50"/>
+      <c r="D76" s="52"/>
       <c r="E76" t="s">
         <v>544</v>
       </c>
@@ -22507,7 +22550,7 @@
       <c r="A77" s="20">
         <v>62</v>
       </c>
-      <c r="D77" s="50"/>
+      <c r="D77" s="52"/>
       <c r="E77" t="s">
         <v>545</v>
       </c>
@@ -22582,7 +22625,7 @@
       <c r="A78" s="20">
         <v>63</v>
       </c>
-      <c r="D78" s="50"/>
+      <c r="D78" s="52"/>
       <c r="E78" t="s">
         <v>367</v>
       </c>
@@ -22657,7 +22700,7 @@
       <c r="A79" s="20">
         <v>64</v>
       </c>
-      <c r="D79" s="50"/>
+      <c r="D79" s="52"/>
       <c r="E79" t="s">
         <v>546</v>
       </c>
@@ -22732,7 +22775,7 @@
       <c r="A80" s="20">
         <v>65</v>
       </c>
-      <c r="D80" s="50"/>
+      <c r="D80" s="52"/>
       <c r="E80" t="s">
         <v>546</v>
       </c>
@@ -22807,7 +22850,7 @@
       <c r="A81" s="20">
         <v>66</v>
       </c>
-      <c r="D81" s="50"/>
+      <c r="D81" s="52"/>
       <c r="E81" t="s">
         <v>547</v>
       </c>
@@ -22885,7 +22928,7 @@
       <c r="C82" s="20">
         <v>9</v>
       </c>
-      <c r="D82" s="50"/>
+      <c r="D82" s="52"/>
       <c r="E82" t="s">
         <v>548</v>
       </c>
@@ -22960,7 +23003,7 @@
       <c r="C83" s="20">
         <v>1</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="52" t="s">
         <v>927</v>
       </c>
       <c r="E83" t="s">
@@ -23040,7 +23083,7 @@
       <c r="C84" s="20">
         <v>3</v>
       </c>
-      <c r="D84" s="50"/>
+      <c r="D84" s="52"/>
       <c r="E84" t="s">
         <v>284</v>
       </c>
@@ -23118,7 +23161,7 @@
       <c r="C85" s="20">
         <v>5</v>
       </c>
-      <c r="D85" s="50"/>
+      <c r="D85" s="52"/>
       <c r="E85" t="s">
         <v>284</v>
       </c>
@@ -23196,7 +23239,7 @@
       <c r="C86" s="20">
         <v>7</v>
       </c>
-      <c r="D86" s="50"/>
+      <c r="D86" s="52"/>
       <c r="E86" t="s">
         <v>284</v>
       </c>
@@ -23274,7 +23317,7 @@
       <c r="C87" s="20">
         <v>9</v>
       </c>
-      <c r="D87" s="50"/>
+      <c r="D87" s="52"/>
       <c r="E87" t="s">
         <v>284</v>
       </c>
@@ -24122,7 +24165,7 @@
       <c r="A98" s="20">
         <v>83</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="52" t="s">
         <v>947</v>
       </c>
       <c r="E98" t="s">
@@ -24199,7 +24242,7 @@
       <c r="A99" s="20">
         <v>84</v>
       </c>
-      <c r="D99" s="50"/>
+      <c r="D99" s="52"/>
       <c r="E99" t="s">
         <v>544</v>
       </c>
@@ -24514,7 +24557,7 @@
       <c r="C103" s="20">
         <v>7</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="52" t="s">
         <v>946</v>
       </c>
       <c r="E103" t="s">
@@ -24594,7 +24637,7 @@
       <c r="C104" s="20">
         <v>5</v>
       </c>
-      <c r="D104" s="50"/>
+      <c r="D104" s="52"/>
       <c r="E104" t="s">
         <v>614</v>
       </c>
@@ -24672,7 +24715,7 @@
       <c r="C105" s="20">
         <v>3</v>
       </c>
-      <c r="D105" s="50"/>
+      <c r="D105" s="52"/>
       <c r="E105" t="s">
         <v>618</v>
       </c>
@@ -24750,7 +24793,7 @@
       <c r="C106" s="20">
         <v>1</v>
       </c>
-      <c r="D106" s="50"/>
+      <c r="D106" s="52"/>
       <c r="E106" t="s">
         <v>155</v>
       </c>
@@ -25198,7 +25241,7 @@
       <c r="A112" s="20">
         <v>97</v>
       </c>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="52" t="s">
         <v>948</v>
       </c>
       <c r="E112" t="s">
@@ -25272,7 +25315,7 @@
       <c r="A113" s="20">
         <v>98</v>
       </c>
-      <c r="D113" s="50"/>
+      <c r="D113" s="52"/>
       <c r="E113" t="s">
         <v>367</v>
       </c>
@@ -26188,7 +26231,7 @@
       <c r="A125" s="20">
         <v>110</v>
       </c>
-      <c r="D125" s="50" t="s">
+      <c r="D125" s="52" t="s">
         <v>948</v>
       </c>
       <c r="E125" t="s">
@@ -26265,7 +26308,7 @@
       <c r="A126" s="20">
         <v>111</v>
       </c>
-      <c r="D126" s="50"/>
+      <c r="D126" s="52"/>
       <c r="E126" t="s">
         <v>367</v>
       </c>
@@ -26340,7 +26383,7 @@
       <c r="A127" s="20">
         <v>112</v>
       </c>
-      <c r="D127" s="50"/>
+      <c r="D127" s="52"/>
       <c r="E127" t="s">
         <v>684</v>
       </c>
@@ -27161,7 +27204,7 @@
       <c r="A138" s="20">
         <v>123</v>
       </c>
-      <c r="D138" s="50" t="s">
+      <c r="D138" s="52" t="s">
         <v>948</v>
       </c>
       <c r="E138" t="s">
@@ -27238,7 +27281,7 @@
       <c r="A139" s="20">
         <v>124</v>
       </c>
-      <c r="D139" s="50"/>
+      <c r="D139" s="52"/>
       <c r="E139" t="s">
         <v>367</v>
       </c>
@@ -29087,7 +29130,7 @@
       <c r="A163" s="20">
         <v>148</v>
       </c>
-      <c r="D163" s="50" t="s">
+      <c r="D163" s="52" t="s">
         <v>948</v>
       </c>
       <c r="E163" t="s">
@@ -29164,7 +29207,7 @@
       <c r="A164" s="20">
         <v>149</v>
       </c>
-      <c r="D164" s="50"/>
+      <c r="D164" s="52"/>
       <c r="E164" t="s">
         <v>379</v>
       </c>
@@ -29239,7 +29282,7 @@
       <c r="A165" s="20">
         <v>150</v>
       </c>
-      <c r="D165" s="50"/>
+      <c r="D165" s="52"/>
       <c r="E165" t="s">
         <v>367</v>
       </c>
@@ -29468,7 +29511,7 @@
       <c r="A168" s="20">
         <v>153</v>
       </c>
-      <c r="D168" s="50" t="s">
+      <c r="D168" s="52" t="s">
         <v>948</v>
       </c>
       <c r="E168" t="s">
@@ -29545,7 +29588,7 @@
       <c r="A169" s="20">
         <v>154</v>
       </c>
-      <c r="D169" s="50"/>
+      <c r="D169" s="52"/>
       <c r="E169" t="s">
         <v>847</v>
       </c>
@@ -29620,7 +29663,7 @@
       <c r="A170" s="20">
         <v>155</v>
       </c>
-      <c r="D170" s="50"/>
+      <c r="D170" s="52"/>
       <c r="E170" t="s">
         <v>848</v>
       </c>
@@ -29695,7 +29738,7 @@
       <c r="A171" s="20">
         <v>156</v>
       </c>
-      <c r="D171" s="50"/>
+      <c r="D171" s="52"/>
       <c r="E171" t="s">
         <v>849</v>
       </c>
@@ -29770,7 +29813,7 @@
       <c r="A172" s="20">
         <v>157</v>
       </c>
-      <c r="D172" s="50"/>
+      <c r="D172" s="52"/>
       <c r="E172" t="s">
         <v>850</v>
       </c>
@@ -29845,7 +29888,7 @@
       <c r="A173" s="20">
         <v>158</v>
       </c>
-      <c r="D173" s="50"/>
+      <c r="D173" s="52"/>
       <c r="E173" t="s">
         <v>851</v>
       </c>
@@ -30767,7 +30810,7 @@
       <c r="A185" s="20">
         <v>170</v>
       </c>
-      <c r="D185" s="50" t="s">
+      <c r="D185" s="52" t="s">
         <v>948</v>
       </c>
       <c r="E185" t="s">
@@ -30844,7 +30887,7 @@
       <c r="A186" s="20">
         <v>171</v>
       </c>
-      <c r="D186" s="50"/>
+      <c r="D186" s="52"/>
       <c r="E186" t="s">
         <v>379</v>
       </c>
@@ -31307,6 +31350,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31323,14 +31374,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31592,12 +31635,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -33189,14 +33232,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -33546,18 +33589,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
@@ -33704,18 +33747,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
